--- a/Content/Talent/Guidelines/cn/RulesAndRegulations.xlsx
+++ b/Content/Talent/Guidelines/cn/RulesAndRegulations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyin7\Documents\2020Chinese Competition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guzhang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{505C73A8-E18D-4A07-8215-BE5AC94D7269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{338C036A-406A-451A-AB2C-6FD651164472}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B525C5F-AE9D-4128-BC41-A99306BE87A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="726" firstSheet="8" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="726" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chess" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="TeamPoetry" sheetId="10" r:id="rId10"/>
     <sheet name="ChineseBridge" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -418,9 +418,6 @@
   </si>
   <si>
     <t xml:space="preserve">每名参赛者需要朗诵两首诗：一首是指定诗（如下，三选一），另一首是自选诗。 自选诗歌可以选择任何形式：赞美诗，抒情诗，诗歌，韵诗，谜语，绕口令等等。 每首诗歌朗诵时间不超过3分钟；超时会扣分。 (每超10秒钟扣除总平均分数5 分, 满分为100分) 每名参赛者需要提供3份自选诗的复印件供评审评分时参考。  </t>
-  </si>
-  <si>
-    <t>Each contestant needs to recite three pieces: one assigned (please see below), and one self-selected. The self-selected piece can be in any of the following styles: chants, lyrics, poems, rhymes, riddles or tongue twisters, etc. Each piece must be limited to 3 minutes; and any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.) Also, each team needs to bring three paper copies of the self-selected poem for the judges to use during scoring.</t>
   </si>
   <si>
     <t xml:space="preserve">所有华盛顿州K-2年级的学生都可以报名参加个人诗歌朗诵比赛。 根据个人的语言熟练程度，参赛者可以选择如下级别中的一个参加： 
@@ -993,12 +990,15 @@
   <si>
     <t>  </t>
   </si>
+  <si>
+    <t>Each contestant needs to recite two pieces: one assigned (please see below), and one self-selected. The self-selected piece can be in any of the following styles: chants, lyrics, poems, rhymes, riddles or tongue twisters, etc. Each piece must be limited to 3 minutes; and any time overrun will result in point deductions (5 point out of max 100 points for every 10 seconds over.) Also, each team needs to bring three paper copies of the self-selected poem for the judges to use during scoring.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1534,13 +1534,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1548,13 +1548,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
@@ -1562,13 +1562,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="24">
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="63" customHeight="1">
+    <row r="5" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="72">
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="324">
+    <row r="7" spans="1:2" ht="324" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="408">
+    <row r="8" spans="1:2" ht="408" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>12</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -1616,19 +1616,19 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1658,123 +1658,124 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="130.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="48">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" ht="60">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="72">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="84">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="84" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="96">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1786,129 +1787,130 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.42578125" customWidth="1"/>
     <col min="3" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="96">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="96" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="108">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="108" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="120">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.75">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="21" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="B15" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1920,13 +1922,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1934,13 +1936,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="96">
+    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
@@ -1948,13 +1950,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="120">
+    <row r="4" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="72">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1962,7 +1964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="60">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -1970,7 +1972,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="108">
+    <row r="7" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -1978,7 +1980,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="120">
+    <row r="8" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1988,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1994,7 +1996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="24">
+    <row r="10" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36">
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2018,7 +2020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="72">
+    <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="108">
+    <row r="14" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>38</v>
       </c>
@@ -2048,13 +2050,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="122.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>40</v>
       </c>
@@ -2062,25 +2064,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36">
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="108">
+    <row r="5" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="120">
+    <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24">
+    <row r="7" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -2104,7 +2106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="24">
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2122,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2130,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="48">
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="72">
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>53</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="84" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2162,6 +2164,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2173,13 +2176,13 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2187,13 +2190,13 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="36">
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2201,13 +2204,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="48">
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="96">
+    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -2215,7 +2218,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="108">
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
@@ -2223,19 +2226,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2251,7 +2254,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="36">
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
@@ -2259,7 +2262,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="36">
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
@@ -2267,7 +2270,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
@@ -2275,7 +2278,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="72">
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2285,6 +2288,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2292,17 +2296,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="134.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2310,13 +2314,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="24">
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -2324,53 +2328,53 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36">
+    <row r="4" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="96">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="96" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="108">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="108" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="42" customHeight="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
@@ -2378,40 +2382,41 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="72">
+    <row r="11" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2423,111 +2428,111 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="136.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="24">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="36">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="168">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="168" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="264">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="264" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
@@ -2535,6 +2540,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2542,126 +2548,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="36">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="216">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="216" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="228">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="228" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="72">
-      <c r="A12" s="13" t="s">
+      <c r="B12" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+    </row>
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2673,118 +2680,118 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="135.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="132">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="132" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="168">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="168" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="48">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="60">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="48">
+    <row r="13" spans="1:2" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="72">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2801,120 +2808,120 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="128.42578125" customWidth="1"/>
     <col min="3" max="5" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="48">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="72">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" ht="24">
+    <row r="10" spans="1:3" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="72">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="96" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="96">
-      <c r="A12" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="48">
+    <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="72">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
